--- a/data_year/zb/教育/各级各类学校招生数.xlsx
+++ b/data_year/zb/教育/各级各类学校招生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,556 +473,324 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2295.6</v>
+        <v>1716.6</v>
       </c>
       <c r="C2" t="n">
-        <v>2735.99</v>
+        <v>2551.7289</v>
       </c>
       <c r="D2" t="n">
-        <v>1946.5</v>
+        <v>1691.7</v>
       </c>
       <c r="E2" t="n">
-        <v>472.7</v>
+        <v>836.2</v>
       </c>
       <c r="F2" t="n">
-        <v>220.6</v>
+        <v>661.8</v>
       </c>
       <c r="G2" t="n">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
       <c r="H2" t="n">
-        <v>182.7</v>
+        <v>279.7632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2287.9</v>
+        <v>1634.7</v>
       </c>
       <c r="C3" t="n">
-        <v>2815.86</v>
+        <v>2484.7887</v>
       </c>
       <c r="D3" t="n">
-        <v>1944.2</v>
+        <v>1736.8</v>
       </c>
       <c r="E3" t="n">
-        <v>558</v>
+        <v>850.8</v>
       </c>
       <c r="F3" t="n">
-        <v>268.3</v>
+        <v>681.5</v>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
-        <v>185.02</v>
+        <v>247.147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2281.8</v>
+        <v>1570.8</v>
       </c>
       <c r="C4" t="n">
-        <v>2929</v>
+        <v>2415.4</v>
       </c>
       <c r="D4" t="n">
-        <v>1952.8</v>
+        <v>1714.7</v>
       </c>
       <c r="E4" t="n">
-        <v>676.7</v>
+        <v>844.6</v>
       </c>
       <c r="F4" t="n">
-        <v>320.5</v>
+        <v>688.8</v>
       </c>
       <c r="G4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>216.88</v>
-      </c>
+        <v>6.6</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2220.1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2947.4</v>
-      </c>
+        <v>1496.1</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>1829.4</v>
+        <v>1695.4</v>
       </c>
       <c r="E5" t="n">
-        <v>752.1</v>
+        <v>822.7</v>
       </c>
       <c r="F5" t="n">
-        <v>382.2</v>
+        <v>699.8</v>
       </c>
       <c r="G5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>222.1</v>
-      </c>
+        <v>6.6</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2094.6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2899.7</v>
-      </c>
+        <v>1447.8</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>1747</v>
+        <v>1658.4</v>
       </c>
       <c r="E6" t="n">
-        <v>821.5</v>
+        <v>796.6</v>
       </c>
       <c r="F6" t="n">
-        <v>447.3</v>
+        <v>721.4</v>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>229.1</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1987.6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2854.2563</v>
-      </c>
+        <v>1411</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>1671.7</v>
+        <v>1729</v>
       </c>
       <c r="E7" t="n">
-        <v>877.7</v>
+        <v>796.6</v>
       </c>
       <c r="F7" t="n">
-        <v>504.5</v>
+        <v>737.8</v>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>259.2697</v>
-      </c>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1929.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2794.8</v>
-      </c>
+        <v>1487.2</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>1729.4</v>
+        <v>1752.5</v>
       </c>
       <c r="E8" t="n">
-        <v>871.2</v>
+        <v>802.9</v>
       </c>
       <c r="F8" t="n">
-        <v>546.1</v>
+        <v>748.6</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>294</v>
-      </c>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1868.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2703.9143</v>
-      </c>
+        <v>1547.2</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>1736.1</v>
+        <v>1766.6</v>
       </c>
       <c r="E9" t="n">
-        <v>840.2</v>
+        <v>800.1</v>
       </c>
       <c r="F9" t="n">
-        <v>565.9</v>
+        <v>761.5</v>
       </c>
       <c r="G9" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>306.9298</v>
-      </c>
+        <v>11.1</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1859.6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2693.1726</v>
-      </c>
+        <v>1602.5931</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1695.7</v>
+        <v>1867.297</v>
       </c>
       <c r="E10" t="n">
-        <v>837</v>
+        <v>792.7063000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>607.7</v>
+        <v>790.9931</v>
       </c>
       <c r="G10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>294.0872</v>
-      </c>
+        <v>12.3514</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1788.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2616.7296</v>
-      </c>
+        <v>1638.8487</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>1637.8</v>
+        <v>1869.0411</v>
       </c>
       <c r="E11" t="n">
-        <v>830.3</v>
+        <v>839.4949</v>
       </c>
       <c r="F11" t="n">
-        <v>639.5</v>
+        <v>914.9026</v>
       </c>
       <c r="G11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>315.2346</v>
-      </c>
+        <v>14.4211</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1716.6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2551.7289</v>
-      </c>
+        <v>1632.0964</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>1691.7</v>
+        <v>1808.0902</v>
       </c>
       <c r="E12" t="n">
-        <v>836.2</v>
+        <v>876.4435</v>
       </c>
       <c r="F12" t="n">
-        <v>661.8</v>
+        <v>967.4518</v>
       </c>
       <c r="G12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>279.7632</v>
-      </c>
+        <v>14.9046</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1634.7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2484.7887</v>
-      </c>
+        <v>1705.4376</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>1736.8</v>
+        <v>1782.5811</v>
       </c>
       <c r="E13" t="n">
-        <v>850.8</v>
+        <v>904.9538</v>
       </c>
       <c r="F13" t="n">
-        <v>681.5</v>
+        <v>1001.3151</v>
       </c>
       <c r="G13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>247.147</v>
-      </c>
+        <v>14.9062</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1570.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2415.4</v>
-      </c>
+        <v>1731.3811</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>1714.7</v>
+        <v>1701.3874</v>
       </c>
       <c r="E14" t="n">
-        <v>844.6</v>
+        <v>947.5448</v>
       </c>
       <c r="F14" t="n">
-        <v>688.8</v>
+        <v>1014.5421</v>
       </c>
       <c r="G14" t="n">
-        <v>6.6</v>
+        <v>14.6257</v>
       </c>
       <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1496.1</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>1695.4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>822.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>699.8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1447.8</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>1658.4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>796.6</v>
-      </c>
-      <c r="F16" t="n">
-        <v>721.4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1411</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>1729</v>
-      </c>
-      <c r="E17" t="n">
-        <v>796.6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>737.8</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1487.2</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>1752.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>802.9</v>
-      </c>
-      <c r="F18" t="n">
-        <v>748.6</v>
-      </c>
-      <c r="G18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1547.2</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>1766.6</v>
-      </c>
-      <c r="E19" t="n">
-        <v>800.1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>761.5</v>
-      </c>
-      <c r="G19" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1602.6</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>1867.3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>792.7</v>
-      </c>
-      <c r="F20" t="n">
-        <v>790.9931</v>
-      </c>
-      <c r="G20" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1638.8487</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>1869.0411</v>
-      </c>
-      <c r="E21" t="n">
-        <v>839.4949</v>
-      </c>
-      <c r="F21" t="n">
-        <v>914.9026</v>
-      </c>
-      <c r="G21" t="n">
-        <v>14.4211</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1632.0964</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>1808.0902</v>
-      </c>
-      <c r="E22" t="n">
-        <v>876.4435</v>
-      </c>
-      <c r="F22" t="n">
-        <v>967.4518</v>
-      </c>
-      <c r="G22" t="n">
-        <v>14.9046</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
